--- a/biology/Histoire de la zoologie et de la botanique/Martin_Martin_(écrivain)/Martin_Martin_(écrivain).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Martin_Martin_(écrivain)/Martin_Martin_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Martin_Martin_(%C3%A9crivain)</t>
+          <t>Martin_Martin_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Martin (en gaélique écossais : Màrtainn MacGilleMhàrtainn, ?-1718) était un écrivain écossais, connu notamment pour son livre A Description of the Western Isles of Scotland (1703). Cet ouvrage est particulièrement fameux pour ses informations sur l'archipel Saint-Kilda. Cette description a aussi été publiée par Martin quelques années auparavant dans A Late Voyage to St Kilda (1698).
 Originaire de Bealach, près de Duntulm sur l'île de Skye, son travail tire une certaine authenticité du fait qu'il a été élevé en Écosse gaélique. Le Docteur Johnson l'a cependant pensé crédule et, en effet, certaines de ses descriptions du sixième sens et d'autres superstitions semblent subir ce penchant.
